--- a/Results/_clean_results.xlsx
+++ b/Results/_clean_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s164389\Desktop\Afstuderen\Thesis\Results_Exp1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s164389\Desktop\Afstuderen\Thesis\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549B5FE2-6409-4F12-AE96-1731CEEDF951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B20137C-00C4-40A2-9617-31209A894635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0%" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="10%" sheetId="3" r:id="rId3"/>
     <sheet name="20%" sheetId="4" r:id="rId4"/>
     <sheet name="30%" sheetId="5" r:id="rId5"/>
+    <sheet name="Inherent missingness" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="26">
   <si>
     <t>Dataset</t>
   </si>
@@ -80,6 +81,33 @@
   </si>
   <si>
     <t>Zoo</t>
+  </si>
+  <si>
+    <t>Cmc</t>
+  </si>
+  <si>
+    <t>German credit</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Hepatitis</t>
+  </si>
+  <si>
+    <t>Horse colic</t>
+  </si>
+  <si>
+    <t>House votes</t>
+  </si>
+  <si>
+    <t>Nursery</t>
+  </si>
+  <si>
+    <t>Soybean</t>
+  </si>
+  <si>
+    <t>Wisconsin breast cancer</t>
   </si>
 </sst>
 </file>
@@ -421,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,211 +575,386 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>63.950617283950614</v>
+        <v>43.205128205128197</v>
       </c>
       <c r="C5" s="2">
-        <v>38.425925925925931</v>
+        <v>42.948717948717949</v>
       </c>
       <c r="D5" s="2">
-        <v>99.876543209876544</v>
+        <v>43.604826546003018</v>
       </c>
       <c r="E5" s="2">
-        <v>99.656748039100975</v>
+        <v>43.42208374062939</v>
       </c>
       <c r="F5" s="2">
-        <v>93.302469135802468</v>
+        <v>44.849170437405732</v>
       </c>
       <c r="G5" s="2">
-        <v>93.76543209876543</v>
+        <v>44.177978883861243</v>
       </c>
       <c r="H5" s="2">
-        <v>95.987654320987659</v>
+        <v>48.914027149321257</v>
       </c>
       <c r="I5" s="2">
-        <v>95.987654320987659</v>
+        <v>48.914027149321257</v>
       </c>
       <c r="J5" s="2">
-        <v>95.987654320987659</v>
+        <v>48.914027149321257</v>
       </c>
       <c r="K5" s="2">
-        <v>95.987654320987659</v>
+        <v>48.914027149321257</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>73.115942028985501</v>
+        <v>63.950617283950614</v>
       </c>
       <c r="C6" s="2">
-        <v>66.376811594202906</v>
+        <v>38.425925925925931</v>
       </c>
       <c r="D6" s="2">
-        <v>76.231884057971016</v>
+        <v>99.876543209876544</v>
       </c>
       <c r="E6" s="2">
-        <v>73.639877811721462</v>
+        <v>99.656748039100975</v>
       </c>
       <c r="F6" s="2">
-        <v>63.04347826086957</v>
+        <v>93.302469135802468</v>
       </c>
       <c r="G6" s="2">
-        <v>61.48550724637682</v>
+        <v>93.76543209876543</v>
       </c>
       <c r="H6" s="2">
-        <v>67.463768115942031</v>
+        <v>95.987654320987659</v>
       </c>
       <c r="I6" s="2">
-        <v>67.463768115942031</v>
+        <v>95.987654320987659</v>
       </c>
       <c r="J6" s="2">
-        <v>67.463768115942031</v>
+        <v>95.987654320987659</v>
       </c>
       <c r="K6" s="2">
-        <v>67.463768115942031</v>
+        <v>95.987654320987659</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
-        <v>68.888888888888886</v>
+        <v>68.722222222222214</v>
       </c>
       <c r="C7" s="2">
-        <v>59.703703703703702</v>
+        <v>6.9333333333333336</v>
       </c>
       <c r="D7" s="2">
-        <v>95.18518518518519</v>
+        <v>96.244444444444454</v>
       </c>
       <c r="E7" s="2">
-        <v>92.464522777789369</v>
+        <v>64.731346983826171</v>
       </c>
       <c r="F7" s="2">
-        <v>93.037037037037024</v>
+        <v>66.033333333333331</v>
       </c>
       <c r="G7" s="2">
-        <v>92.666666666666671</v>
+        <v>66.222222222222214</v>
       </c>
       <c r="H7" s="2">
-        <v>95.777777777777771</v>
+        <v>71.288888888888877</v>
       </c>
       <c r="I7" s="2">
-        <v>95.777777777777771</v>
+        <v>71.288888888888877</v>
       </c>
       <c r="J7" s="2">
-        <v>95.777777777777771</v>
+        <v>71.288888888888877</v>
       </c>
       <c r="K7" s="2">
-        <v>95.777777777777771</v>
+        <v>71.288888888888877</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>67.629629629629633</v>
+        <v>32.871794871794883</v>
       </c>
       <c r="C8" s="2">
-        <v>61.259259259259252</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D8" s="2">
-        <v>79.037037037037038</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2">
-        <v>75.372507756555308</v>
+        <v>43.333333333333343</v>
       </c>
       <c r="F8" s="2">
-        <v>74.740740740740733</v>
+        <v>70.615384615384613</v>
       </c>
       <c r="G8" s="2">
-        <v>74.81481481481481</v>
+        <v>65.794871794871796</v>
       </c>
       <c r="H8" s="2">
-        <v>83.555555555555557</v>
+        <v>48.974358974358978</v>
       </c>
       <c r="I8" s="2">
-        <v>83.555555555555557</v>
+        <v>48.974358974358978</v>
       </c>
       <c r="J8" s="2">
-        <v>83.555555555555557</v>
+        <v>48.974358974358978</v>
       </c>
       <c r="K8" s="2">
-        <v>83.555555555555557</v>
+        <v>48.974358974358978</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>34.012345679012341</v>
+        <v>73.115942028985501</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>66.376811594202906</v>
       </c>
       <c r="D9" s="2">
-        <v>100</v>
+        <v>76.231884057971016</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>73.639877811721462</v>
       </c>
       <c r="F9" s="2">
-        <v>90.679012345679013</v>
+        <v>63.04347826086957</v>
       </c>
       <c r="G9" s="2">
-        <v>90.864197530864203</v>
+        <v>61.48550724637682</v>
       </c>
       <c r="H9" s="2">
-        <v>97.654320987654316</v>
+        <v>67.463768115942031</v>
       </c>
       <c r="I9" s="2">
-        <v>97.654320987654316</v>
+        <v>67.463768115942031</v>
       </c>
       <c r="J9" s="2">
-        <v>97.654320987654316</v>
+        <v>67.463768115942031</v>
       </c>
       <c r="K9" s="2">
-        <v>97.654320987654316</v>
+        <v>67.463768115942031</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>68.888888888888886</v>
+      </c>
+      <c r="C10" s="2">
+        <v>59.703703703703702</v>
+      </c>
+      <c r="D10" s="2">
+        <v>95.18518518518519</v>
+      </c>
+      <c r="E10" s="2">
+        <v>92.464522777789369</v>
+      </c>
+      <c r="F10" s="2">
+        <v>93.037037037037024</v>
+      </c>
+      <c r="G10" s="2">
+        <v>92.666666666666671</v>
+      </c>
+      <c r="H10" s="2">
+        <v>95.777777777777771</v>
+      </c>
+      <c r="I10" s="2">
+        <v>95.777777777777771</v>
+      </c>
+      <c r="J10" s="2">
+        <v>95.777777777777771</v>
+      </c>
+      <c r="K10" s="2">
+        <v>95.777777777777771</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>67.629629629629633</v>
+      </c>
+      <c r="C11" s="2">
+        <v>61.259259259259252</v>
+      </c>
+      <c r="D11" s="2">
+        <v>79.037037037037038</v>
+      </c>
+      <c r="E11" s="2">
+        <v>75.372507756555308</v>
+      </c>
+      <c r="F11" s="2">
+        <v>74.740740740740733</v>
+      </c>
+      <c r="G11" s="2">
+        <v>74.81481481481481</v>
+      </c>
+      <c r="H11" s="2">
+        <v>83.555555555555557</v>
+      </c>
+      <c r="I11" s="2">
+        <v>83.555555555555557</v>
+      </c>
+      <c r="J11" s="2">
+        <v>83.555555555555557</v>
+      </c>
+      <c r="K11" s="2">
+        <v>83.555555555555557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2">
+        <v>84.513031550068575</v>
+      </c>
+      <c r="C12" s="2">
+        <v>70.172325102880663</v>
+      </c>
+      <c r="D12" s="2">
+        <v>92.355109739368999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>90.420791385565863</v>
+      </c>
+      <c r="F12" s="2">
+        <v>78.846879286694104</v>
+      </c>
+      <c r="G12" s="2">
+        <v>71.442043895747602</v>
+      </c>
+      <c r="H12" s="2">
+        <v>85.264917695473258</v>
+      </c>
+      <c r="I12" s="2">
+        <v>79.511316872427997</v>
+      </c>
+      <c r="J12" s="2">
+        <v>79.511316872427997</v>
+      </c>
+      <c r="K12" s="2">
+        <v>79.511316872427997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>34.012345679012341</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>90.679012345679013</v>
+      </c>
+      <c r="G13" s="2">
+        <v>90.864197530864203</v>
+      </c>
+      <c r="H13" s="2">
+        <v>97.654320987654316</v>
+      </c>
+      <c r="I13" s="2">
+        <v>97.654320987654316</v>
+      </c>
+      <c r="J13" s="2">
+        <v>97.654320987654316</v>
+      </c>
+      <c r="K13" s="2">
+        <v>97.654320987654316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2">
+        <v>36.822612085769983</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>93.352826510721243</v>
+      </c>
+      <c r="G14" s="2">
+        <v>91.715399610136458</v>
+      </c>
+      <c r="H14" s="2">
+        <v>93.957115009746587</v>
+      </c>
+      <c r="I14" s="2">
+        <v>93.742690058479539</v>
+      </c>
+      <c r="J14" s="2">
+        <v>93.742690058479539</v>
+      </c>
+      <c r="K14" s="2">
+        <v>93.742690058479539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B15" s="2">
         <v>81.72043010752688</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C15" s="2">
         <v>59.462365591397848</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D15" s="2">
         <v>99.462365591397855</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E15" s="2">
         <v>100</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F15" s="2">
         <v>91.075268817204304</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G15" s="2">
         <v>93.010752688172047</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H15" s="2">
         <v>93.655913978494624</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I15" s="2">
         <v>93.655913978494624</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J15" s="2">
         <v>93.655913978494624</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K15" s="2">
         <v>93.655913978494624</v>
       </c>
     </row>
@@ -762,10 +965,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B2F77C-225C-42FA-94D0-8B54CC46A178}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="B3:K10"/>
+      <selection activeCell="K15" sqref="B3:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,211 +1091,386 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>60.370370370370367</v>
+        <v>43.212669683257907</v>
       </c>
       <c r="C5" s="2">
-        <v>37.129629629629633</v>
+        <v>42.963800904977383</v>
       </c>
       <c r="D5" s="2">
-        <v>99.783950617283963</v>
+        <v>43.552036199095021</v>
       </c>
       <c r="E5" s="2">
-        <v>99.436533476633301</v>
+        <v>43.320216382088091</v>
       </c>
       <c r="F5" s="2">
-        <v>81.41975308641976</v>
+        <v>43.288084464555048</v>
       </c>
       <c r="G5" s="2">
-        <v>92.839506172839506</v>
+        <v>44.539969834087493</v>
       </c>
       <c r="H5" s="2">
-        <v>96.296296296296291</v>
+        <v>47.39064856711915</v>
       </c>
       <c r="I5" s="2">
-        <v>96.666666666666671</v>
+        <v>40.806938159879337</v>
       </c>
       <c r="J5" s="2">
-        <v>96.666666666666671</v>
+        <v>56.17647058823529</v>
       </c>
       <c r="K5" s="2">
-        <v>96.666666666666671</v>
+        <v>50.095288908426127</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>72.173913043478265</v>
+        <v>60.370370370370367</v>
       </c>
       <c r="C6" s="2">
-        <v>66.449275362318843</v>
+        <v>37.129629629629633</v>
       </c>
       <c r="D6" s="2">
-        <v>75.543478260869563</v>
+        <v>99.783950617283963</v>
       </c>
       <c r="E6" s="2">
-        <v>73.061995719822093</v>
+        <v>99.436533476633301</v>
       </c>
       <c r="F6" s="2">
-        <v>62.028985507246382</v>
+        <v>81.41975308641976</v>
       </c>
       <c r="G6" s="2">
-        <v>60.978260869565219</v>
+        <v>92.839506172839506</v>
       </c>
       <c r="H6" s="2">
-        <v>67.065217391304344</v>
+        <v>96.296296296296291</v>
       </c>
       <c r="I6" s="2">
-        <v>68.550724637681157</v>
+        <v>96.666666666666671</v>
       </c>
       <c r="J6" s="2">
-        <v>70.543478260869563</v>
+        <v>96.666666666666671</v>
       </c>
       <c r="K6" s="2">
-        <v>69.954917404274354</v>
+        <v>96.666666666666671</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
-        <v>68.962962962962962</v>
+        <v>70.01111111111112</v>
       </c>
       <c r="C7" s="2">
-        <v>58.592592592592588</v>
+        <v>6.677777777777778</v>
       </c>
       <c r="D7" s="2">
-        <v>95.481481481481481</v>
+        <v>96.222222222222229</v>
       </c>
       <c r="E7" s="2">
-        <v>92.962507511468587</v>
+        <v>63.953002461398228</v>
       </c>
       <c r="F7" s="2">
-        <v>93.851851851851862</v>
+        <v>60.18888888888889</v>
       </c>
       <c r="G7" s="2">
-        <v>94.222222222222214</v>
+        <v>63.888888888888893</v>
       </c>
       <c r="H7" s="2">
-        <v>96.148148148148138</v>
+        <v>71.055555555555571</v>
       </c>
       <c r="I7" s="2">
-        <v>95.777777777777786</v>
+        <v>59.377777777777773</v>
       </c>
       <c r="J7" s="2">
-        <v>96.074074074074076</v>
+        <v>79.055555555555557</v>
       </c>
       <c r="K7" s="2">
-        <v>96.069023569023571</v>
+        <v>73.984432263116474</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>67.18518518518519</v>
+        <v>32.564102564102569</v>
       </c>
       <c r="C8" s="2">
-        <v>60</v>
+        <v>0.46153846153846162</v>
       </c>
       <c r="D8" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2">
-        <v>74.563101452073468</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2">
-        <v>68.666666666666671</v>
+        <v>67.794871794871796</v>
       </c>
       <c r="G8" s="2">
-        <v>75.925925925925924</v>
+        <v>66.358974358974351</v>
       </c>
       <c r="H8" s="2">
-        <v>82.962962962962962</v>
+        <v>53.333333333333343</v>
       </c>
       <c r="I8" s="2">
-        <v>81.851851851851862</v>
+        <v>51.230769230769234</v>
       </c>
       <c r="J8" s="2">
-        <v>82.962962962962962</v>
+        <v>52</v>
       </c>
       <c r="K8" s="2">
-        <v>82.789249079946757</v>
+        <v>51.714005901505899</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>34.876543209876537</v>
+        <v>72.173913043478265</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>66.449275362318843</v>
       </c>
       <c r="D9" s="2">
-        <v>100</v>
+        <v>75.543478260869563</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>73.061995719822093</v>
       </c>
       <c r="F9" s="2">
-        <v>91.913580246913583</v>
+        <v>62.028985507246382</v>
       </c>
       <c r="G9" s="2">
-        <v>91.481481481481481</v>
+        <v>60.978260869565219</v>
       </c>
       <c r="H9" s="2">
-        <v>97.592592592592595</v>
+        <v>67.065217391304344</v>
       </c>
       <c r="I9" s="2">
-        <v>97.654320987654316</v>
+        <v>68.550724637681157</v>
       </c>
       <c r="J9" s="2">
-        <v>97.716049382716037</v>
+        <v>70.543478260869563</v>
       </c>
       <c r="K9" s="2">
-        <v>97.712555322618215</v>
+        <v>69.954917404274354</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>68.962962962962962</v>
+      </c>
+      <c r="C10" s="2">
+        <v>58.592592592592588</v>
+      </c>
+      <c r="D10" s="2">
+        <v>95.481481481481481</v>
+      </c>
+      <c r="E10" s="2">
+        <v>92.962507511468587</v>
+      </c>
+      <c r="F10" s="2">
+        <v>93.851851851851862</v>
+      </c>
+      <c r="G10" s="2">
+        <v>94.222222222222214</v>
+      </c>
+      <c r="H10" s="2">
+        <v>96.148148148148138</v>
+      </c>
+      <c r="I10" s="2">
+        <v>95.777777777777786</v>
+      </c>
+      <c r="J10" s="2">
+        <v>96.074074074074076</v>
+      </c>
+      <c r="K10" s="2">
+        <v>96.069023569023571</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>67.18518518518519</v>
+      </c>
+      <c r="C11" s="2">
+        <v>60</v>
+      </c>
+      <c r="D11" s="2">
+        <v>78</v>
+      </c>
+      <c r="E11" s="2">
+        <v>74.563101452073468</v>
+      </c>
+      <c r="F11" s="2">
+        <v>68.666666666666671</v>
+      </c>
+      <c r="G11" s="2">
+        <v>75.925925925925924</v>
+      </c>
+      <c r="H11" s="2">
+        <v>82.962962962962962</v>
+      </c>
+      <c r="I11" s="2">
+        <v>81.851851851851862</v>
+      </c>
+      <c r="J11" s="2">
+        <v>82.962962962962962</v>
+      </c>
+      <c r="K11" s="2">
+        <v>82.789249079946757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2">
+        <v>84.685356652949238</v>
+      </c>
+      <c r="C12" s="2">
+        <v>71.30658436213993</v>
+      </c>
+      <c r="D12" s="2">
+        <v>91.906721536351171</v>
+      </c>
+      <c r="E12" s="2">
+        <v>90.074386891731379</v>
+      </c>
+      <c r="F12" s="2">
+        <v>77.061042524005487</v>
+      </c>
+      <c r="G12" s="2">
+        <v>71.124828532235952</v>
+      </c>
+      <c r="H12" s="2">
+        <v>84.350994513031551</v>
+      </c>
+      <c r="I12" s="2">
+        <v>54.452160493827158</v>
+      </c>
+      <c r="J12" s="2">
+        <v>86.242283950617292</v>
+      </c>
+      <c r="K12" s="2">
+        <v>85.061054037975865</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>34.876543209876537</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>91.913580246913583</v>
+      </c>
+      <c r="G13" s="2">
+        <v>91.481481481481481</v>
+      </c>
+      <c r="H13" s="2">
+        <v>97.592592592592595</v>
+      </c>
+      <c r="I13" s="2">
+        <v>97.654320987654316</v>
+      </c>
+      <c r="J13" s="2">
+        <v>97.716049382716037</v>
+      </c>
+      <c r="K13" s="2">
+        <v>97.712555322618215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2">
+        <v>37.42690058479532</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>93.138401559454195</v>
+      </c>
+      <c r="G14" s="2">
+        <v>92.495126705653021</v>
+      </c>
+      <c r="H14" s="2">
+        <v>93.703703703703695</v>
+      </c>
+      <c r="I14" s="2">
+        <v>93.879142300194928</v>
+      </c>
+      <c r="J14" s="2">
+        <v>93.898635477582829</v>
+      </c>
+      <c r="K14" s="2">
+        <v>93.897144822841412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B15" s="2">
         <v>81.72043010752688</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C15" s="2">
         <v>58.70967741935484</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D15" s="2">
         <v>100</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E15" s="2">
         <v>100</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F15" s="2">
         <v>91.075268817204289</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G15" s="2">
         <v>92.473118279569889</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H15" s="2">
         <v>92.365591397849457</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I15" s="2">
         <v>92.903225806451616</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J15" s="2">
         <v>93.010752688172047</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K15" s="2">
         <v>93.114695340501797</v>
       </c>
     </row>
@@ -1103,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEC6859-CF3F-4BF9-8A3F-1E9FC899221C}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="B3:K10"/>
+      <selection activeCell="K15" sqref="B3:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,211 +1607,386 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>59.969135802469133</v>
+        <v>43.589743589743577</v>
       </c>
       <c r="C5" s="2">
-        <v>34.722222222222221</v>
+        <v>43.363499245852182</v>
       </c>
       <c r="D5" s="2">
-        <v>99.722222222222214</v>
+        <v>43.959276018099551</v>
       </c>
       <c r="E5" s="2">
-        <v>99.181093699563306</v>
+        <v>43.801356952886621</v>
       </c>
       <c r="F5" s="2">
-        <v>71.450617283950606</v>
+        <v>41.749622926093522</v>
       </c>
       <c r="G5" s="2">
-        <v>91.851851851851862</v>
+        <v>44.245852187028653</v>
       </c>
       <c r="H5" s="2">
-        <v>95.401234567901227</v>
+        <v>48.114630467571637</v>
       </c>
       <c r="I5" s="2">
-        <v>96.203703703703695</v>
+        <v>34.856711915535449</v>
       </c>
       <c r="J5" s="2">
-        <v>96.296296296296291</v>
+        <v>59.864253393665159</v>
       </c>
       <c r="K5" s="2">
-        <v>96.293411791854155</v>
+        <v>49.85315283998694</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>73.224637681159422</v>
+        <v>59.969135802469133</v>
       </c>
       <c r="C6" s="2">
-        <v>68.007246376811594</v>
+        <v>34.722222222222221</v>
       </c>
       <c r="D6" s="2">
-        <v>76.884057971014499</v>
+        <v>99.722222222222214</v>
       </c>
       <c r="E6" s="2">
-        <v>74.637423492976424</v>
+        <v>99.181093699563306</v>
       </c>
       <c r="F6" s="2">
-        <v>61.268115942028977</v>
+        <v>71.450617283950606</v>
       </c>
       <c r="G6" s="2">
-        <v>61.123188405797102</v>
+        <v>91.851851851851862</v>
       </c>
       <c r="H6" s="2">
-        <v>69.311594202898547</v>
+        <v>95.401234567901227</v>
       </c>
       <c r="I6" s="2">
-        <v>70.869565217391298</v>
+        <v>96.203703703703695</v>
       </c>
       <c r="J6" s="2">
-        <v>73.949275362318829</v>
+        <v>96.296296296296291</v>
       </c>
       <c r="K6" s="2">
-        <v>73.15890665329168</v>
+        <v>96.293411791854155</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
-        <v>65.111111111111114</v>
+        <v>69.433333333333337</v>
       </c>
       <c r="C7" s="2">
-        <v>55.555555555555557</v>
+        <v>6.7</v>
       </c>
       <c r="D7" s="2">
-        <v>94.444444444444429</v>
+        <v>96.455555555555563</v>
       </c>
       <c r="E7" s="2">
-        <v>90.750083656481834</v>
+        <v>65.549490017417199</v>
       </c>
       <c r="F7" s="2">
-        <v>93.703703703703709</v>
+        <v>47.366666666666667</v>
       </c>
       <c r="G7" s="2">
-        <v>93.777777777777786</v>
+        <v>54.56666666666667</v>
       </c>
       <c r="H7" s="2">
-        <v>95.407407407407405</v>
+        <v>71.12222222222222</v>
       </c>
       <c r="I7" s="2">
-        <v>95.777777777777786</v>
+        <v>39.588888888888889</v>
       </c>
       <c r="J7" s="2">
-        <v>96</v>
+        <v>82.333333333333329</v>
       </c>
       <c r="K7" s="2">
-        <v>95.988215488215488</v>
+        <v>71.844766196017659</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>67.777777777777771</v>
+        <v>34.205128205128197</v>
       </c>
       <c r="C8" s="2">
-        <v>60.592592592592602</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="D8" s="2">
-        <v>79.703703703703709</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2">
-        <v>75.563628283253749</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2">
-        <v>64.81481481481481</v>
+        <v>67.025641025641022</v>
       </c>
       <c r="G8" s="2">
-        <v>73.851851851851862</v>
+        <v>64.666666666666671</v>
       </c>
       <c r="H8" s="2">
-        <v>83.259259259259267</v>
+        <v>57.897435897435898</v>
       </c>
       <c r="I8" s="2">
-        <v>79.259259259259267</v>
+        <v>49.333333333333343</v>
       </c>
       <c r="J8" s="2">
-        <v>84.444444444444443</v>
+        <v>50.61538461538462</v>
       </c>
       <c r="K8" s="2">
-        <v>83.620189829917564</v>
+        <v>50.09128256003256</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>33.580246913580247</v>
+        <v>73.224637681159422</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>68.007246376811594</v>
       </c>
       <c r="D9" s="2">
-        <v>100</v>
+        <v>76.884057971014499</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>74.637423492976424</v>
       </c>
       <c r="F9" s="2">
-        <v>90.802469135802468</v>
+        <v>61.268115942028977</v>
       </c>
       <c r="G9" s="2">
-        <v>90.617283950617292</v>
+        <v>61.123188405797102</v>
       </c>
       <c r="H9" s="2">
-        <v>98.086419753086417</v>
+        <v>69.311594202898547</v>
       </c>
       <c r="I9" s="2">
-        <v>98.086419753086417</v>
+        <v>70.869565217391298</v>
       </c>
       <c r="J9" s="2">
-        <v>98.086419753086417</v>
+        <v>73.949275362318829</v>
       </c>
       <c r="K9" s="2">
-        <v>98.086419753086417</v>
+        <v>73.15890665329168</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>65.111111111111114</v>
+      </c>
+      <c r="C10" s="2">
+        <v>55.555555555555557</v>
+      </c>
+      <c r="D10" s="2">
+        <v>94.444444444444429</v>
+      </c>
+      <c r="E10" s="2">
+        <v>90.750083656481834</v>
+      </c>
+      <c r="F10" s="2">
+        <v>93.703703703703709</v>
+      </c>
+      <c r="G10" s="2">
+        <v>93.777777777777786</v>
+      </c>
+      <c r="H10" s="2">
+        <v>95.407407407407405</v>
+      </c>
+      <c r="I10" s="2">
+        <v>95.777777777777786</v>
+      </c>
+      <c r="J10" s="2">
+        <v>96</v>
+      </c>
+      <c r="K10" s="2">
+        <v>95.988215488215488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>67.777777777777771</v>
+      </c>
+      <c r="C11" s="2">
+        <v>60.592592592592602</v>
+      </c>
+      <c r="D11" s="2">
+        <v>79.703703703703709</v>
+      </c>
+      <c r="E11" s="2">
+        <v>75.563628283253749</v>
+      </c>
+      <c r="F11" s="2">
+        <v>64.81481481481481</v>
+      </c>
+      <c r="G11" s="2">
+        <v>73.851851851851862</v>
+      </c>
+      <c r="H11" s="2">
+        <v>83.259259259259267</v>
+      </c>
+      <c r="I11" s="2">
+        <v>79.259259259259267</v>
+      </c>
+      <c r="J11" s="2">
+        <v>84.444444444444443</v>
+      </c>
+      <c r="K11" s="2">
+        <v>83.620189829917564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2">
+        <v>84.356995884773653</v>
+      </c>
+      <c r="C12" s="2">
+        <v>71.078532235939647</v>
+      </c>
+      <c r="D12" s="2">
+        <v>91.730109739368999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>89.893267568732924</v>
+      </c>
+      <c r="F12" s="2">
+        <v>74.704218106995896</v>
+      </c>
+      <c r="G12" s="2">
+        <v>71.82956104252402</v>
+      </c>
+      <c r="H12" s="2">
+        <v>84.152091906721537</v>
+      </c>
+      <c r="I12" s="2">
+        <v>46.212277091906721</v>
+      </c>
+      <c r="J12" s="2">
+        <v>83.602537722908082</v>
+      </c>
+      <c r="K12" s="2">
+        <v>82.430834037479599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>33.580246913580247</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>90.802469135802468</v>
+      </c>
+      <c r="G13" s="2">
+        <v>90.617283950617292</v>
+      </c>
+      <c r="H13" s="2">
+        <v>98.086419753086417</v>
+      </c>
+      <c r="I13" s="2">
+        <v>98.086419753086417</v>
+      </c>
+      <c r="J13" s="2">
+        <v>98.086419753086417</v>
+      </c>
+      <c r="K13" s="2">
+        <v>98.086419753086417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2">
+        <v>36.569200779727097</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>92.592592592592595</v>
+      </c>
+      <c r="G14" s="2">
+        <v>92.066276803118896</v>
+      </c>
+      <c r="H14" s="2">
+        <v>92.612085769980496</v>
+      </c>
+      <c r="I14" s="2">
+        <v>93.918128654970758</v>
+      </c>
+      <c r="J14" s="2">
+        <v>93.957115009746587</v>
+      </c>
+      <c r="K14" s="2">
+        <v>93.954363031762398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B15" s="2">
         <v>81.290322580645153</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C15" s="2">
         <v>59.677419354838698</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D15" s="2">
         <v>100</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E15" s="2">
         <v>100</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F15" s="2">
         <v>87.741935483870961</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G15" s="2">
         <v>93.010752688172047</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H15" s="2">
         <v>91.827956989247312</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I15" s="2">
         <v>93.548387096774192</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J15" s="2">
         <v>93.655913978494624</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K15" s="2">
         <v>93.759856630824373</v>
       </c>
     </row>
@@ -1444,10 +1997,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E602FCB-125C-44ED-82BD-812C801FC0AB}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="B3:K10"/>
+      <selection activeCell="K15" sqref="B3:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,211 +2123,386 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>59.135802469135797</v>
+        <v>42.518853695324282</v>
       </c>
       <c r="C5" s="2">
-        <v>35.52469135802469</v>
+        <v>42.375565610859731</v>
       </c>
       <c r="D5" s="2">
-        <v>99.907407407407405</v>
+        <v>42.850678733031678</v>
       </c>
       <c r="E5" s="2">
-        <v>99.726190476190467</v>
+        <v>42.669535881073621</v>
       </c>
       <c r="F5" s="2">
-        <v>54.876543209876537</v>
+        <v>38.831070889894427</v>
       </c>
       <c r="G5" s="2">
-        <v>90.462962962962962</v>
+        <v>43.506787330316747</v>
       </c>
       <c r="H5" s="2">
-        <v>94.197530864197518</v>
+        <v>48.174962292609351</v>
       </c>
       <c r="I5" s="2">
-        <v>95.802469135802468</v>
+        <v>21.025641025641029</v>
       </c>
       <c r="J5" s="2">
-        <v>95.956790123456784</v>
+        <v>64.547511312217196</v>
       </c>
       <c r="K5" s="2">
-        <v>95.951886465905147</v>
+        <v>45.675635783055618</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>72.318840579710155</v>
+        <v>59.135802469135797</v>
       </c>
       <c r="C6" s="2">
-        <v>64.891304347826079</v>
+        <v>35.52469135802469</v>
       </c>
       <c r="D6" s="2">
-        <v>76.050724637681171</v>
+        <v>99.907407407407405</v>
       </c>
       <c r="E6" s="2">
-        <v>73.049778161923186</v>
+        <v>99.726190476190467</v>
       </c>
       <c r="F6" s="2">
-        <v>60.54347826086957</v>
+        <v>54.876543209876537</v>
       </c>
       <c r="G6" s="2">
-        <v>61.992753623188413</v>
+        <v>90.462962962962962</v>
       </c>
       <c r="H6" s="2">
-        <v>69.927536231884062</v>
+        <v>94.197530864197518</v>
       </c>
       <c r="I6" s="2">
-        <v>68.985507246376812</v>
+        <v>95.802469135802468</v>
       </c>
       <c r="J6" s="2">
-        <v>74.20289855072464</v>
+        <v>95.956790123456784</v>
       </c>
       <c r="K6" s="2">
-        <v>72.826294800467096</v>
+        <v>95.951886465905147</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
-        <v>67.185185185185176</v>
+        <v>69.444444444444443</v>
       </c>
       <c r="C7" s="2">
-        <v>54</v>
+        <v>6.3</v>
       </c>
       <c r="D7" s="2">
-        <v>94.666666666666671</v>
+        <v>96.622222222222234</v>
       </c>
       <c r="E7" s="2">
-        <v>91.079673900096083</v>
+        <v>64.937063343971786</v>
       </c>
       <c r="F7" s="2">
-        <v>93.037037037037024</v>
+        <v>44.8</v>
       </c>
       <c r="G7" s="2">
-        <v>93.777777777777786</v>
+        <v>54.777777777777779</v>
       </c>
       <c r="H7" s="2">
-        <v>95.407407407407405</v>
+        <v>70.811111111111117</v>
       </c>
       <c r="I7" s="2">
-        <v>96</v>
+        <v>33.56666666666667</v>
       </c>
       <c r="J7" s="2">
-        <v>96.074074074074076</v>
+        <v>47.666666666666657</v>
       </c>
       <c r="K7" s="2">
-        <v>96.072390572390574</v>
+        <v>41.122593503674658</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>68</v>
+        <v>32.153846153846153</v>
       </c>
       <c r="C8" s="2">
-        <v>61.037037037037038</v>
+        <v>0.35897435897435898</v>
       </c>
       <c r="D8" s="2">
-        <v>78.518518518518519</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2">
-        <v>74.621005029493347</v>
+        <v>23.333333333333329</v>
       </c>
       <c r="F8" s="2">
-        <v>52.296296296296298</v>
+        <v>66</v>
       </c>
       <c r="G8" s="2">
-        <v>71.037037037037024</v>
+        <v>64.666666666666671</v>
       </c>
       <c r="H8" s="2">
-        <v>78.518518518518519</v>
+        <v>55.487179487179482</v>
       </c>
       <c r="I8" s="2">
-        <v>73.1111111111111</v>
+        <v>45.025641025641022</v>
       </c>
       <c r="J8" s="2">
-        <v>84</v>
+        <v>47.846153846153847</v>
       </c>
       <c r="K8" s="2">
-        <v>82.207951844503654</v>
+        <v>46.780766699308927</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>32.53086419753086</v>
+        <v>72.318840579710155</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>64.891304347826079</v>
       </c>
       <c r="D9" s="2">
-        <v>100</v>
+        <v>76.050724637681171</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>73.049778161923186</v>
       </c>
       <c r="F9" s="2">
-        <v>92.037037037037038</v>
+        <v>60.54347826086957</v>
       </c>
       <c r="G9" s="2">
-        <v>89.753086419753089</v>
+        <v>61.992753623188413</v>
       </c>
       <c r="H9" s="2">
-        <v>96.913580246913583</v>
+        <v>69.927536231884062</v>
       </c>
       <c r="I9" s="2">
-        <v>97.901234567901227</v>
+        <v>68.985507246376812</v>
       </c>
       <c r="J9" s="2">
-        <v>98.209876543209887</v>
+        <v>74.20289855072464</v>
       </c>
       <c r="K9" s="2">
-        <v>98.201723736314932</v>
+        <v>72.826294800467096</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>67.185185185185176</v>
+      </c>
+      <c r="C10" s="2">
+        <v>54</v>
+      </c>
+      <c r="D10" s="2">
+        <v>94.666666666666671</v>
+      </c>
+      <c r="E10" s="2">
+        <v>91.079673900096083</v>
+      </c>
+      <c r="F10" s="2">
+        <v>93.037037037037024</v>
+      </c>
+      <c r="G10" s="2">
+        <v>93.777777777777786</v>
+      </c>
+      <c r="H10" s="2">
+        <v>95.407407407407405</v>
+      </c>
+      <c r="I10" s="2">
+        <v>96</v>
+      </c>
+      <c r="J10" s="2">
+        <v>96.074074074074076</v>
+      </c>
+      <c r="K10" s="2">
+        <v>96.072390572390574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>68</v>
+      </c>
+      <c r="C11" s="2">
+        <v>61.037037037037038</v>
+      </c>
+      <c r="D11" s="2">
+        <v>78.518518518518519</v>
+      </c>
+      <c r="E11" s="2">
+        <v>74.621005029493347</v>
+      </c>
+      <c r="F11" s="2">
+        <v>52.296296296296298</v>
+      </c>
+      <c r="G11" s="2">
+        <v>71.037037037037024</v>
+      </c>
+      <c r="H11" s="2">
+        <v>78.518518518518519</v>
+      </c>
+      <c r="I11" s="2">
+        <v>73.1111111111111</v>
+      </c>
+      <c r="J11" s="2">
+        <v>84</v>
+      </c>
+      <c r="K11" s="2">
+        <v>82.207951844503654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2">
+        <v>84.530178326474626</v>
+      </c>
+      <c r="C12" s="2">
+        <v>71.673525377229069</v>
+      </c>
+      <c r="D12" s="2">
+        <v>91.594650205761326</v>
+      </c>
+      <c r="E12" s="2">
+        <v>89.807177685525446</v>
+      </c>
+      <c r="F12" s="2">
+        <v>70.495541838134429</v>
+      </c>
+      <c r="G12" s="2">
+        <v>70.751886145404654</v>
+      </c>
+      <c r="H12" s="2">
+        <v>84.819101508916319</v>
+      </c>
+      <c r="I12" s="2">
+        <v>39.987997256515783</v>
+      </c>
+      <c r="J12" s="2">
+        <v>80.996227709190663</v>
+      </c>
+      <c r="K12" s="2">
+        <v>80.672160264744264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>32.53086419753086</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>92.037037037037038</v>
+      </c>
+      <c r="G13" s="2">
+        <v>89.753086419753089</v>
+      </c>
+      <c r="H13" s="2">
+        <v>96.913580246913583</v>
+      </c>
+      <c r="I13" s="2">
+        <v>97.901234567901227</v>
+      </c>
+      <c r="J13" s="2">
+        <v>98.209876543209887</v>
+      </c>
+      <c r="K13" s="2">
+        <v>98.201723736314932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2">
+        <v>37.777777777777779</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>93.469785575048732</v>
+      </c>
+      <c r="G14" s="2">
+        <v>92.748538011695899</v>
+      </c>
+      <c r="H14" s="2">
+        <v>92.261208576998058</v>
+      </c>
+      <c r="I14" s="2">
+        <v>93.840155945419099</v>
+      </c>
+      <c r="J14" s="2">
+        <v>93.879142300194928</v>
+      </c>
+      <c r="K14" s="2">
+        <v>93.877536979704161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B15" s="2">
         <v>79.677419354838705</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C15" s="2">
         <v>59.354838709677423</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D15" s="2">
         <v>99.569892473118273</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E15" s="2">
         <v>100</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F15" s="2">
         <v>91.290322580645153</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G15" s="2">
         <v>90.752688172043008</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H15" s="2">
         <v>90.967741935483872</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I15" s="2">
         <v>92.795698924731184</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J15" s="2">
         <v>93.118279569892465</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K15" s="2">
         <v>93.103942652329749</v>
       </c>
     </row>
@@ -1785,10 +2513,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13C97E5C-3E71-45B3-8268-A01E04F99A8D}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="B3:K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,212 +2639,588 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
-        <v>56.481481481481481</v>
+        <v>44.276018099547507</v>
       </c>
       <c r="C5" s="2">
-        <v>33.055555555555557</v>
+        <v>43.891402714932127</v>
       </c>
       <c r="D5" s="2">
-        <v>99.783950617283963</v>
+        <v>44.67571644042232</v>
       </c>
       <c r="E5" s="2">
-        <v>99.306255835667599</v>
+        <v>44.428415519423773</v>
       </c>
       <c r="F5" s="2">
-        <v>41.450617283950614</v>
+        <v>39.185520361990953</v>
       </c>
       <c r="G5" s="2">
-        <v>92.345679012345684</v>
+        <v>43.061840120663653</v>
       </c>
       <c r="H5" s="2">
-        <v>92.746913580246911</v>
+        <v>47.850678733031678</v>
       </c>
       <c r="I5" s="2">
-        <v>95.277777777777786</v>
+        <v>23.05429864253394</v>
       </c>
       <c r="J5" s="2">
-        <v>95.555555555555557</v>
+        <v>60.739064856711913</v>
       </c>
       <c r="K5" s="2">
-        <v>95.541050618932246</v>
+        <v>46.334922695913782</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>73.152173913043484</v>
+        <v>56.481481481481481</v>
       </c>
       <c r="C6" s="2">
-        <v>65.79710144927536</v>
+        <v>33.055555555555557</v>
       </c>
       <c r="D6" s="2">
-        <v>76.739130434782609</v>
+        <v>99.783950617283963</v>
       </c>
       <c r="E6" s="2">
-        <v>73.885095088809763</v>
+        <v>99.306255835667599</v>
       </c>
       <c r="F6" s="2">
-        <v>63.007246376811587</v>
+        <v>41.450617283950614</v>
       </c>
       <c r="G6" s="2">
-        <v>62.210144927536227</v>
+        <v>92.345679012345684</v>
       </c>
       <c r="H6" s="2">
-        <v>73.115942028985501</v>
+        <v>92.746913580246911</v>
       </c>
       <c r="I6" s="2">
-        <v>70.94202898550725</v>
+        <v>95.277777777777786</v>
       </c>
       <c r="J6" s="2">
-        <v>77.282608695652172</v>
+        <v>95.555555555555557</v>
       </c>
       <c r="K6" s="2">
-        <v>75.785502818899758</v>
+        <v>95.541050618932246</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
-        <v>64.370370370370367</v>
+        <v>69.255555555555546</v>
       </c>
       <c r="C7" s="2">
-        <v>50.296296296296298</v>
+        <v>5.5333333333333332</v>
       </c>
       <c r="D7" s="2">
-        <v>95.555555555555557</v>
+        <v>96.855555555555569</v>
       </c>
       <c r="E7" s="2">
-        <v>92.01385952986476</v>
+        <v>63.882780515614087</v>
       </c>
       <c r="F7" s="2">
-        <v>92.888888888888886</v>
+        <v>32.155555555555551</v>
       </c>
       <c r="G7" s="2">
-        <v>93.481481481481481</v>
+        <v>44.022222222222233</v>
       </c>
       <c r="H7" s="2">
-        <v>95.555555555555557</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="I7" s="2">
-        <v>95.703703703703695</v>
+        <v>45.644444444444439</v>
       </c>
       <c r="J7" s="2">
-        <v>95.925925925925924</v>
+        <v>58.533333333333331</v>
       </c>
       <c r="K7" s="2">
-        <v>95.914141414141412</v>
+        <v>53.307097901245648</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>69.925925925925924</v>
+        <v>32.820512820512818</v>
       </c>
       <c r="C8" s="2">
-        <v>62.592592592592588</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="D8" s="2">
-        <v>79.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2">
-        <v>76.18706311536674</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2">
-        <v>51.333333333333343</v>
+        <v>64.410256410256409</v>
       </c>
       <c r="G8" s="2">
-        <v>70.370370370370381</v>
+        <v>61.487179487179482</v>
       </c>
       <c r="H8" s="2">
-        <v>81.407407407407405</v>
+        <v>57.333333333333343</v>
       </c>
       <c r="I8" s="2">
-        <v>73.259259259259267</v>
+        <v>36.512820512820518</v>
       </c>
       <c r="J8" s="2">
-        <v>85.18518518518519</v>
+        <v>38.051282051282058</v>
       </c>
       <c r="K8" s="2">
-        <v>83.582258881925398</v>
+        <v>37.558974090350077</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>33.20987654320988</v>
+        <v>73.152173913043484</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>65.79710144927536</v>
       </c>
       <c r="D9" s="2">
-        <v>100</v>
+        <v>76.739130434782609</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>73.885095088809763</v>
       </c>
       <c r="F9" s="2">
-        <v>89.567901234567898</v>
+        <v>63.007246376811587</v>
       </c>
       <c r="G9" s="2">
-        <v>88.58024691358024</v>
+        <v>62.210144927536227</v>
       </c>
       <c r="H9" s="2">
-        <v>96.296296296296291</v>
+        <v>73.115942028985501</v>
       </c>
       <c r="I9" s="2">
-        <v>97.345679012345684</v>
+        <v>70.94202898550725</v>
       </c>
       <c r="J9" s="2">
-        <v>97.592592592592595</v>
+        <v>77.282608695652172</v>
       </c>
       <c r="K9" s="2">
-        <v>97.587889050153208</v>
+        <v>75.785502818899758</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>64.370370370370367</v>
+      </c>
+      <c r="C10" s="2">
+        <v>50.296296296296298</v>
+      </c>
+      <c r="D10" s="2">
+        <v>95.555555555555557</v>
+      </c>
+      <c r="E10" s="2">
+        <v>92.01385952986476</v>
+      </c>
+      <c r="F10" s="2">
+        <v>92.888888888888886</v>
+      </c>
+      <c r="G10" s="2">
+        <v>93.481481481481481</v>
+      </c>
+      <c r="H10" s="2">
+        <v>95.555555555555557</v>
+      </c>
+      <c r="I10" s="2">
+        <v>95.703703703703695</v>
+      </c>
+      <c r="J10" s="2">
+        <v>95.925925925925924</v>
+      </c>
+      <c r="K10" s="2">
+        <v>95.914141414141412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>69.925925925925924</v>
+      </c>
+      <c r="C11" s="2">
+        <v>62.592592592592588</v>
+      </c>
+      <c r="D11" s="2">
+        <v>79.333333333333329</v>
+      </c>
+      <c r="E11" s="2">
+        <v>76.18706311536674</v>
+      </c>
+      <c r="F11" s="2">
+        <v>51.333333333333343</v>
+      </c>
+      <c r="G11" s="2">
+        <v>70.370370370370381</v>
+      </c>
+      <c r="H11" s="2">
+        <v>81.407407407407405</v>
+      </c>
+      <c r="I11" s="2">
+        <v>73.259259259259267</v>
+      </c>
+      <c r="J11" s="2">
+        <v>85.18518518518519</v>
+      </c>
+      <c r="K11" s="2">
+        <v>83.582258881925398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2">
+        <v>84.383573388203018</v>
+      </c>
+      <c r="C12" s="2">
+        <v>72.757201646090536</v>
+      </c>
+      <c r="D12" s="2">
+        <v>90.864197530864203</v>
+      </c>
+      <c r="E12" s="2">
+        <v>89.193509388598557</v>
+      </c>
+      <c r="F12" s="2">
+        <v>69.54389574759945</v>
+      </c>
+      <c r="G12" s="2">
+        <v>72.240226337448561</v>
+      </c>
+      <c r="H12" s="2">
+        <v>84.673353909465021</v>
+      </c>
+      <c r="I12" s="2">
+        <v>34.812242798353907</v>
+      </c>
+      <c r="J12" s="2">
+        <v>75.46124828532237</v>
+      </c>
+      <c r="K12" s="2">
+        <v>74.705894462856477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>33.20987654320988</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>89.567901234567898</v>
+      </c>
+      <c r="G13" s="2">
+        <v>88.58024691358024</v>
+      </c>
+      <c r="H13" s="2">
+        <v>96.296296296296291</v>
+      </c>
+      <c r="I13" s="2">
+        <v>97.345679012345684</v>
+      </c>
+      <c r="J13" s="2">
+        <v>97.592592592592595</v>
+      </c>
+      <c r="K13" s="2">
+        <v>97.587889050153208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2">
+        <v>37.894736842105267</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>92.865497076023388</v>
+      </c>
+      <c r="G14" s="2">
+        <v>92.183235867446399</v>
+      </c>
+      <c r="H14" s="2">
+        <v>92.670565302144254</v>
+      </c>
+      <c r="I14" s="2">
+        <v>93.840155945419099</v>
+      </c>
+      <c r="J14" s="2">
+        <v>93.859649122807014</v>
+      </c>
+      <c r="K14" s="2">
+        <v>93.858617131062957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B15" s="2">
         <v>82.903225806451616</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C15" s="2">
         <v>60.967741935483872</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D15" s="2">
         <v>99.462365591397855</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E15" s="2">
         <v>100</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F15" s="2">
         <v>85.6989247311828</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G15" s="2">
         <v>87.634408602150543</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H15" s="2">
         <v>91.935483870967744</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I15" s="2">
         <v>92.58064516129032</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J15" s="2">
         <v>92.903225806451616</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K15" s="2">
         <v>92.878136200716852</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0932CF6-E64C-4A8F-8FE6-E877BC9C2054}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="B3:K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2">
+        <v>79.716312056737578</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6.1702127659574462</v>
+      </c>
+      <c r="D3" s="2">
+        <v>99.78723404255318</v>
+      </c>
+      <c r="E3" s="2">
+        <v>97.111111111111114</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45.319148936170222</v>
+      </c>
+      <c r="G3" s="2">
+        <v>51.347517730496449</v>
+      </c>
+      <c r="H3" s="2">
+        <v>86.524822695035468</v>
+      </c>
+      <c r="I3" s="2">
+        <v>85.602836879432616</v>
+      </c>
+      <c r="J3" s="2">
+        <v>87.659574468085111</v>
+      </c>
+      <c r="K3" s="2">
+        <v>87.443070856576867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2">
+        <v>12.22222222222222</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.37037037037037029</v>
+      </c>
+      <c r="D4" s="2">
+        <v>99.666666666666671</v>
+      </c>
+      <c r="E4" s="2">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5.2592592592592586</v>
+      </c>
+      <c r="G4" s="2">
+        <v>34.962962962962962</v>
+      </c>
+      <c r="H4" s="2">
+        <v>69.148148148148138</v>
+      </c>
+      <c r="I4" s="2">
+        <v>19.925925925925931</v>
+      </c>
+      <c r="J4" s="2">
+        <v>21.07407407407408</v>
+      </c>
+      <c r="K4" s="2">
+        <v>26.13121201216228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2">
+        <v>89.898218830000005</v>
+      </c>
+      <c r="C5" s="2">
+        <v>89.847328239999996</v>
+      </c>
+      <c r="D5" s="2">
+        <v>89.923664119999998</v>
+      </c>
+      <c r="E5" s="2">
+        <v>89.916617729999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>94.325699749999998</v>
+      </c>
+      <c r="G5" s="2">
+        <v>93.81679389</v>
+      </c>
+      <c r="H5" s="2">
+        <v>94.987277349999999</v>
+      </c>
+      <c r="I5" s="2">
+        <v>94.987277349999999</v>
+      </c>
+      <c r="J5" s="2">
+        <v>94.987277349999999</v>
+      </c>
+      <c r="K5" s="2">
+        <v>94.987277349999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2">
+        <v>56.738351254480293</v>
+      </c>
+      <c r="C6" s="2">
+        <v>39.749103942652333</v>
+      </c>
+      <c r="D6" s="2">
+        <v>90.250896057347674</v>
+      </c>
+      <c r="E6" s="2">
+        <v>81.050252862864738</v>
+      </c>
+      <c r="F6" s="2">
+        <v>56.881720430107528</v>
+      </c>
+      <c r="G6" s="2">
+        <v>67.41935483870968</v>
+      </c>
+      <c r="H6" s="2">
+        <v>88.566308243727605</v>
+      </c>
+      <c r="I6" s="2">
+        <v>88.028673835125446</v>
+      </c>
+      <c r="J6" s="2">
+        <v>88.243727598566309</v>
+      </c>
+      <c r="K6" s="2">
+        <v>88.378525790868011</v>
       </c>
     </row>
   </sheetData>

--- a/Results/_clean_results.xlsx
+++ b/Results/_clean_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s164389\Desktop\Afstuderen\Thesis\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B20137C-00C4-40A2-9617-31209A894635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBD5B6B-F1DA-4E70-87DC-08DD5BC9573D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0%" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,31 @@
     <sheet name="20%" sheetId="4" r:id="rId4"/>
     <sheet name="30%" sheetId="5" r:id="rId5"/>
     <sheet name="Inherent missingness" sheetId="6" r:id="rId6"/>
+    <sheet name="Dataset characteristics" sheetId="7" r:id="rId7"/>
+    <sheet name="Robust instances" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="32">
   <si>
     <t>Dataset</t>
   </si>
@@ -109,12 +122,30 @@
   <si>
     <t>Wisconsin breast cancer</t>
   </si>
+  <si>
+    <t>Instances</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>Discrete</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +157,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,12 +202,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +1010,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="B3:K15"/>
+      <selection sqref="A1:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,7 +1526,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="B3:K15"/>
+      <selection sqref="A1:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,8 +2041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E602FCB-125C-44ED-82BD-812C801FC0AB}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="B3:K15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2516,7 +2558,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:K15"/>
+      <selection sqref="A1:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3032,7 +3074,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="B3:K6"/>
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3226,4 +3268,1060 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A374D30-2240-496E-9BAA-13B1F4434C70}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>625</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1728</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>1473</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>366</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>214</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>306</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>155</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>368</v>
+      </c>
+      <c r="C10">
+        <v>22</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>435</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>150</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>146</v>
+      </c>
+      <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>12960</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>683</v>
+      </c>
+      <c r="C15">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>35</v>
+      </c>
+      <c r="F15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>178</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>699</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>101</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B4B9C2-EE98-45C2-B2BD-185FA7CC9E20}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>625</v>
+      </c>
+      <c r="C3" s="5">
+        <v>620.01282252546969</v>
+      </c>
+      <c r="D3" s="5">
+        <v>617.67977301094913</v>
+      </c>
+      <c r="E3" s="5">
+        <v>621.10601557936684</v>
+      </c>
+      <c r="F3" s="5">
+        <v>618.95291850900344</v>
+      </c>
+      <c r="G3" s="5">
+        <v>619.50498554861792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1728</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1728</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1728</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1728</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1728</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>1473</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1456.9420923313928</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1460.880947012048</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1458.2752415146531</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1462.8518181863533</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1455.1956319673304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>366</v>
+      </c>
+      <c r="C6" s="5">
+        <v>141.12329737441195</v>
+      </c>
+      <c r="D6" s="5">
+        <v>136.6645031691279</v>
+      </c>
+      <c r="E6" s="5">
+        <v>128.13261942673344</v>
+      </c>
+      <c r="F6" s="5">
+        <v>130.37735598795643</v>
+      </c>
+      <c r="G6" s="5">
+        <v>121.82851152251381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>107.10936287276245</v>
+      </c>
+      <c r="D7" s="5">
+        <v>104.416954963271</v>
+      </c>
+      <c r="E7" s="5">
+        <v>102.21284709033951</v>
+      </c>
+      <c r="F7" s="5">
+        <v>97.017014253152851</v>
+      </c>
+      <c r="G7" s="5">
+        <v>86.616977042520688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>214</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3.2923076923076913</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3.292307692307693</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3.2923076923076922</v>
+      </c>
+      <c r="F8" s="5">
+        <v>3.292307692307693</v>
+      </c>
+      <c r="G8" s="5">
+        <v>3.2923076923076926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>306</v>
+      </c>
+      <c r="C9" s="5">
+        <v>275.81936515099812</v>
+      </c>
+      <c r="D9" s="5">
+        <v>278.3044462519793</v>
+      </c>
+      <c r="E9" s="5">
+        <v>278.81746739640124</v>
+      </c>
+      <c r="F9" s="5">
+        <v>271.82476976754191</v>
+      </c>
+      <c r="G9" s="5">
+        <v>272.50304028542331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>150</v>
+      </c>
+      <c r="C10" s="5">
+        <v>96.853963947637894</v>
+      </c>
+      <c r="D10" s="5">
+        <v>94.542295858409602</v>
+      </c>
+      <c r="E10" s="5">
+        <v>91.827279905081667</v>
+      </c>
+      <c r="F10" s="5">
+        <v>88.933124737411418</v>
+      </c>
+      <c r="G10" s="5">
+        <v>81.992478991664925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>146</v>
+      </c>
+      <c r="C11" s="5">
+        <v>118.66199119630572</v>
+      </c>
+      <c r="D11" s="5">
+        <v>117.48438342027147</v>
+      </c>
+      <c r="E11" s="5">
+        <v>117.07376577203171</v>
+      </c>
+      <c r="F11" s="5">
+        <v>119.42223779866333</v>
+      </c>
+      <c r="G11" s="5">
+        <v>119.94842883863969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>12960</v>
+      </c>
+      <c r="C12" s="5">
+        <v>10057.790021493982</v>
+      </c>
+      <c r="D12" s="5">
+        <v>10259.668316634046</v>
+      </c>
+      <c r="E12" s="5">
+        <v>10247.461269259567</v>
+      </c>
+      <c r="F12" s="5">
+        <v>10343.147539292966</v>
+      </c>
+      <c r="G12" s="5">
+        <v>10571.770746514285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>178</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>699</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>101</v>
+      </c>
+      <c r="C15" s="5">
+        <v>60.056989247311833</v>
+      </c>
+      <c r="D15" s="5">
+        <v>59.296774193548387</v>
+      </c>
+      <c r="E15" s="5">
+        <v>60.274193548387082</v>
+      </c>
+      <c r="F15" s="5">
+        <v>59.948387096774198</v>
+      </c>
+      <c r="G15" s="5">
+        <v>61.57741935483871</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>625</v>
+      </c>
+      <c r="C19" s="5">
+        <v>625</v>
+      </c>
+      <c r="D19" s="5">
+        <v>619.54503907851142</v>
+      </c>
+      <c r="E19" s="5">
+        <v>616.56371863698735</v>
+      </c>
+      <c r="F19" s="5">
+        <v>608.72826898774179</v>
+      </c>
+      <c r="G19" s="5">
+        <v>597.11997244312931</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>1728</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1728</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1707.9075717219323</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1677.2957499181321</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1410.3855144803506</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1100.8083638806052</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>1473</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1473</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1199.8856822520863</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1029.9035011162027</v>
+      </c>
+      <c r="F21" s="5">
+        <v>678.0588534743182</v>
+      </c>
+      <c r="G21" s="5">
+        <v>732.90252631515216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>366</v>
+      </c>
+      <c r="C22" s="5">
+        <v>366</v>
+      </c>
+      <c r="D22" s="5">
+        <v>366</v>
+      </c>
+      <c r="E22" s="5">
+        <v>365.65903004523261</v>
+      </c>
+      <c r="F22" s="5">
+        <v>365.43006078533938</v>
+      </c>
+      <c r="G22" s="5">
+        <v>364.99145069853944</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>1000</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D23" s="5">
+        <v>802.57124318543197</v>
+      </c>
+      <c r="E23" s="5">
+        <v>551.03372152226859</v>
+      </c>
+      <c r="F23" s="5">
+        <v>816.25850431022059</v>
+      </c>
+      <c r="G23" s="5">
+        <v>856.25453722885652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>214</v>
+      </c>
+      <c r="C24" s="5">
+        <v>214.00000000000003</v>
+      </c>
+      <c r="D24" s="5">
+        <v>212.00029710066156</v>
+      </c>
+      <c r="E24" s="5">
+        <v>210.76188897101525</v>
+      </c>
+      <c r="F24" s="5">
+        <v>205.97112572824761</v>
+      </c>
+      <c r="G24" s="5">
+        <v>208.0393242623513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>306</v>
+      </c>
+      <c r="C25" s="5">
+        <v>306</v>
+      </c>
+      <c r="D25" s="5">
+        <v>299.85771576150461</v>
+      </c>
+      <c r="E25" s="5">
+        <v>296.42442661553912</v>
+      </c>
+      <c r="F25" s="5">
+        <v>289.86185930821119</v>
+      </c>
+      <c r="G25" s="5">
+        <v>286.44344976426692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26">
+        <v>150</v>
+      </c>
+      <c r="C26" s="5">
+        <v>150</v>
+      </c>
+      <c r="D26" s="5">
+        <v>149.54525541049682</v>
+      </c>
+      <c r="E26" s="5">
+        <v>149.67115070943754</v>
+      </c>
+      <c r="F26" s="5">
+        <v>149.88697495925842</v>
+      </c>
+      <c r="G26" s="5">
+        <v>149.67089674056132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27">
+        <v>146</v>
+      </c>
+      <c r="C27" s="5">
+        <v>146</v>
+      </c>
+      <c r="D27" s="5">
+        <v>144.34688686245127</v>
+      </c>
+      <c r="E27" s="5">
+        <v>138.38585962778674</v>
+      </c>
+      <c r="F27" s="5">
+        <v>129.84415719798631</v>
+      </c>
+      <c r="G27" s="5">
+        <v>127.96796826180086</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>12960</v>
+      </c>
+      <c r="C28" s="5">
+        <v>12960</v>
+      </c>
+      <c r="D28" s="5">
+        <v>8296.3937842215928</v>
+      </c>
+      <c r="E28" s="5">
+        <v>7265.6199358458343</v>
+      </c>
+      <c r="F28" s="5">
+        <v>6424.0804106857449</v>
+      </c>
+      <c r="G28" s="5">
+        <v>6039.2378661764797</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>178</v>
+      </c>
+      <c r="C29" s="5">
+        <v>178</v>
+      </c>
+      <c r="D29" s="5">
+        <v>177.89391627729569</v>
+      </c>
+      <c r="E29" s="5">
+        <v>178</v>
+      </c>
+      <c r="F29" s="5">
+        <v>177.45533469329663</v>
+      </c>
+      <c r="G29" s="5">
+        <v>177.55820965952464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>699</v>
+      </c>
+      <c r="C30" s="5">
+        <v>699</v>
+      </c>
+      <c r="D30" s="5">
+        <v>698.8659835359889</v>
+      </c>
+      <c r="E30" s="5">
+        <v>698.73042412762902</v>
+      </c>
+      <c r="F30" s="5">
+        <v>698.72166565287171</v>
+      </c>
+      <c r="G30" s="5">
+        <v>698.86251269026218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>101</v>
+      </c>
+      <c r="C31" s="5">
+        <v>101</v>
+      </c>
+      <c r="D31" s="5">
+        <v>100.77062242580546</v>
+      </c>
+      <c r="E31" s="5">
+        <v>100.77220077220076</v>
+      </c>
+      <c r="F31" s="5">
+        <v>100.66561441330458</v>
+      </c>
+      <c r="G31" s="5">
+        <v>100.67649442364835</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/_clean_results.xlsx
+++ b/Results/_clean_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s164389\Desktop\Afstuderen\Thesis\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2432A8E8-0BCA-4F8F-B878-BA4616FA222B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73825273-3DAC-43F6-8E78-45E292FC4ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3867,7 +3867,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3958,34 +3958,34 @@
         <v>35</v>
       </c>
       <c r="B4" s="2">
-        <v>82.695035460992898</v>
+        <v>79.290780141843967</v>
       </c>
       <c r="C4" s="2">
-        <v>72.340425531914889</v>
+        <v>40.283687943262407</v>
       </c>
       <c r="D4" s="2">
-        <v>87.234042553191486</v>
+        <v>94.468085106382972</v>
       </c>
       <c r="E4" s="2">
-        <v>85.039640090025202</v>
+        <v>87.825028505111064</v>
       </c>
       <c r="F4" s="2">
-        <v>75.177304964539005</v>
+        <v>45.10638297872341</v>
       </c>
       <c r="G4" s="2">
-        <v>76.170212765957459</v>
+        <v>54.113475177304963</v>
       </c>
       <c r="H4" s="2">
-        <v>83.687943262411352</v>
+        <v>82.553191489361708</v>
       </c>
       <c r="I4" s="2">
-        <v>83.687943262411352</v>
+        <v>82.836879432624116</v>
       </c>
       <c r="J4" s="2">
-        <v>83.687943262411352</v>
+        <v>84.893617021276597</v>
       </c>
       <c r="K4" s="2">
-        <v>83.687943262411352</v>
+        <v>84.595426980255837</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4028,34 +4028,34 @@
         <v>36</v>
       </c>
       <c r="B6" s="2">
-        <v>56.296296296296298</v>
+        <v>19.148148148148149</v>
       </c>
       <c r="C6" s="2">
-        <v>46.703703703703702</v>
+        <v>1.1111111111111109</v>
       </c>
       <c r="D6" s="2">
-        <v>71.777777777777786</v>
+        <v>99.666666666666671</v>
       </c>
       <c r="E6" s="2">
-        <v>62.716751634144501</v>
+        <v>70</v>
       </c>
       <c r="F6" s="2">
-        <v>71.370370370370367</v>
+        <v>3.481481481481481</v>
       </c>
       <c r="G6" s="2">
-        <v>69.962962962962962</v>
+        <v>36.296296296296298</v>
       </c>
       <c r="H6" s="2">
-        <v>66.740740740740733</v>
+        <v>62.370370370370367</v>
       </c>
       <c r="I6" s="2">
-        <v>66.740740740740733</v>
+        <v>40.703703703703702</v>
       </c>
       <c r="J6" s="2">
-        <v>66.740740740740733</v>
+        <v>43.25925925925926</v>
       </c>
       <c r="K6" s="2">
-        <v>66.740740740740733</v>
+        <v>42.841929203160781</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
